--- a/Publish/Resources/299.Contrast.PFS.FINAL.5.5.21.xlsx
+++ b/Publish/Resources/299.Contrast.PFS.FINAL.5.5.21.xlsx
@@ -11351,9 +11351,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100364BA8222640BF40B47B20B9F827EE1E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="78bbba30ffba1eeec9bb3d9f35df39ce">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51796436-8a0c-435a-829e-18e6ae7f62dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd989c98b959d2a077414e9e6a3ea78e" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100364BA8222640BF40B47B20B9F827EE1E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f4daa53e4b9068220a121fed56b974">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51796436-8a0c-435a-829e-18e6ae7f62dc" xmlns:ns3="e6bdf5ed-f06e-4a49-88e7-9a55df091a23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b295c49f26fcbb8c0bc28ceaa9e38025" ns2:_="" ns3:_="">
     <xsd:import namespace="51796436-8a0c-435a-829e-18e6ae7f62dc"/>
+    <xsd:import namespace="e6bdf5ed-f06e-4a49-88e7-9a55df091a23"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -11364,6 +11365,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11390,6 +11393,36 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e6bdf5ed-f06e-4a49-88e7-9a55df091a23" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -11507,7 +11540,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6582E1A-23B5-4387-A704-1FCF7BF74DAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA569043-C296-4124-848F-6C0DB500B87E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Publish/Resources/299.Contrast.PFS.FINAL.5.5.21.xlsx
+++ b/Publish/Resources/299.Contrast.PFS.FINAL.5.5.21.xlsx
@@ -11351,8 +11351,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100364BA8222640BF40B47B20B9F827EE1E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f4daa53e4b9068220a121fed56b974">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51796436-8a0c-435a-829e-18e6ae7f62dc" xmlns:ns3="e6bdf5ed-f06e-4a49-88e7-9a55df091a23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b295c49f26fcbb8c0bc28ceaa9e38025" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100364BA8222640BF40B47B20B9F827EE1E" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b87327e82458898bf34277b84cd0bd2b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51796436-8a0c-435a-829e-18e6ae7f62dc" xmlns:ns3="e6bdf5ed-f06e-4a49-88e7-9a55df091a23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="715944ce15a3d6808a1633d5a1e74cc9" ns2:_="" ns3:_="">
     <xsd:import namespace="51796436-8a0c-435a-829e-18e6ae7f62dc"/>
     <xsd:import namespace="e6bdf5ed-f06e-4a49-88e7-9a55df091a23"/>
     <xsd:element name="properties">
@@ -11367,6 +11367,8 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:Summary"/>
+                <xsd:element ref="ns2:Publish" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11397,6 +11399,18 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Summary" ma:index="14" ma:displayName="Summary" ma:description="Summary of the contents in the document" ma:format="Dropdown" ma:internalName="Summary">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Publish" ma:index="15" nillable="true" ma:displayName="Publish" ma:default="0" ma:description="Visible to public" ma:format="Dropdown" ma:internalName="Publish">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -11531,7 +11545,10 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <Publish xmlns="51796436-8a0c-435a-829e-18e6ae7f62dc">false</Publish>
+    <Summary xmlns="51796436-8a0c-435a-829e-18e6ae7f62dc"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -11540,7 +11557,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA569043-C296-4124-848F-6C0DB500B87E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE1482FF-F7D1-4E73-8759-E70E8FD983C7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
